--- a/medintfit.xlsx
+++ b/medintfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -192,6 +192,9 @@
     <t xml:space="preserve">gr_1</t>
   </si>
   <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
@@ -400,6 +406,24 @@
   </si>
   <si>
     <t xml:space="preserve">a1*b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind1+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind2+d2</t>
   </si>
   <si>
     <t xml:space="preserve">est.std</t>
@@ -1917,7 +1941,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F21" t="n">
         <v>-0.0357647169996547</v>
@@ -1940,7 +1964,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -1975,7 +1999,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2010,7 +2034,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2022,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
         <v>-0.0752659769937559</v>
@@ -2045,7 +2069,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2057,7 +2081,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>-0.0738917057255802</v>
@@ -2080,7 +2104,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2115,7 +2139,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2150,7 +2174,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -2162,7 +2186,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
         <v>0.694631368393377</v>
@@ -2185,7 +2209,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -2220,7 +2244,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2255,13 +2279,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -2290,13 +2314,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2325,13 +2349,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2360,13 +2384,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -2395,13 +2419,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2430,13 +2454,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2465,13 +2489,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -2500,13 +2524,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -2535,13 +2559,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -2570,13 +2594,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -2605,13 +2629,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -2640,13 +2664,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -2675,13 +2699,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -2710,13 +2734,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -2745,13 +2769,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
@@ -2780,13 +2804,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -2815,13 +2839,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -2850,13 +2874,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -2885,13 +2909,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
@@ -2920,13 +2944,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2955,13 +2979,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -2990,13 +3014,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -3025,13 +3049,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3060,13 +3084,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
@@ -3095,13 +3119,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
@@ -3130,13 +3154,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -3161,13 +3185,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -3196,13 +3220,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -3231,13 +3255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -3266,13 +3290,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -3301,13 +3325,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -3336,13 +3360,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -3371,13 +3395,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -3406,13 +3430,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -3441,13 +3465,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3476,13 +3500,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -3511,13 +3535,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3546,13 +3570,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3581,13 +3605,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -3616,13 +3640,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -3651,13 +3675,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -3686,13 +3710,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -3721,13 +3745,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -3756,13 +3780,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -3791,13 +3815,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -3822,13 +3846,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -3853,13 +3877,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -3884,13 +3908,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -3915,13 +3939,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -3946,13 +3970,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -3977,19 +4001,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" t="s">
         <v>124</v>
-      </c>
-      <c r="E81" t="s">
-        <v>122</v>
       </c>
       <c r="F81" t="n">
         <v>0.0788380308808758</v>
@@ -4012,19 +4036,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
         <v>125</v>
       </c>
-      <c r="B82" t="s">
-        <v>126</v>
-      </c>
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F82" t="n">
         <v>-0.0522821085926371</v>
@@ -4043,6 +4067,76 @@
       </c>
       <c r="K82" t="n">
         <v>0.030302283611051</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0430733138812212</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.133096356719807</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.323625040855917</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.746221927523944</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.229972875745936</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.28847838578346</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.126173814318217</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.16237945170026</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.777030671042816</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.437140675049113</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.45186150636465</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.19158672320903</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4170,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -4773,7 +4867,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F21" t="n">
         <v>-0.0166094266402768</v>
@@ -4796,7 +4890,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -4831,7 +4925,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -4866,7 +4960,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -4878,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
         <v>-0.084939704048342</v>
@@ -4901,7 +4995,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -4913,7 +5007,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>-0.0259397094559114</v>
@@ -4936,7 +5030,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -4971,7 +5065,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -5006,7 +5100,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -5018,7 +5112,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
         <v>0.216078604667479</v>
@@ -5041,7 +5135,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -5076,7 +5170,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -5111,13 +5205,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -5146,13 +5240,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -5181,13 +5275,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -5216,13 +5310,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -5251,13 +5345,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -5286,13 +5380,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -5321,13 +5415,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -5356,13 +5450,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -5391,13 +5485,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -5426,13 +5520,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -5461,13 +5555,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -5496,13 +5590,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -5531,13 +5625,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -5566,13 +5660,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -5601,13 +5695,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
@@ -5636,13 +5730,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -5671,13 +5765,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -5706,13 +5800,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -5741,13 +5835,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
@@ -5776,13 +5870,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -5811,13 +5905,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -5846,13 +5940,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -5881,13 +5975,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -5912,13 +6006,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
@@ -5943,13 +6037,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
@@ -5978,13 +6072,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -6009,13 +6103,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -6044,13 +6138,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -6079,13 +6173,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -6114,13 +6208,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -6149,13 +6243,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -6184,13 +6278,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -6219,13 +6313,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -6254,13 +6348,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -6289,13 +6383,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -6324,13 +6418,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -6359,13 +6453,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -6394,13 +6488,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -6429,13 +6523,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -6464,13 +6558,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -6499,13 +6593,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -6534,13 +6628,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -6569,13 +6663,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -6604,13 +6698,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -6639,13 +6733,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -6670,13 +6764,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -6701,13 +6795,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -6732,13 +6826,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -6763,13 +6857,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -6794,13 +6888,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -6825,19 +6919,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" t="s">
         <v>124</v>
-      </c>
-      <c r="E81" t="s">
-        <v>122</v>
       </c>
       <c r="F81" t="n">
         <v>0.0366130253565944</v>
@@ -6860,19 +6954,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
         <v>125</v>
       </c>
-      <c r="B82" t="s">
-        <v>126</v>
-      </c>
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F82" t="n">
         <v>-0.0183536527316343</v>
@@ -6891,6 +6985,76 @@
       </c>
       <c r="K82" t="n">
         <v>0.0117473154918349</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0200035987163177</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.062219547379538</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.321500228767274</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.74783133892334</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.10194447328196</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.141951670714596</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.0442933621875457</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0570600836802896</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.776258276025734</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.43759650344673</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.156129071155755</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0675423467806635</v>
       </c>
     </row>
   </sheetData>
@@ -6912,64 +7076,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="O1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -7034,7 +7198,7 @@
         <v>0.173657842098344</v>
       </c>
       <c r="U2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -7099,7 +7263,7 @@
         <v>0.161199759549178</v>
       </c>
       <c r="U3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4">
@@ -7164,7 +7328,7 @@
         <v>0.1834437287707</v>
       </c>
       <c r="U4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
@@ -7229,7 +7393,7 @@
         <v>0.156562532010438</v>
       </c>
       <c r="U5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -7294,7 +7458,7 @@
         <v>-0.0315434535795543</v>
       </c>
       <c r="U6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
@@ -7359,7 +7523,7 @@
         <v>-0.0292909304428968</v>
       </c>
       <c r="U7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
@@ -7424,7 +7588,7 @@
         <v>-0.0266017539414588</v>
       </c>
       <c r="U8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
@@ -7489,7 +7653,7 @@
         <v>-0.0284000510977508</v>
       </c>
       <c r="U9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
@@ -7554,7 +7718,7 @@
         <v>0.0107683284703053</v>
       </c>
       <c r="U10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
@@ -7619,7 +7783,7 @@
         <v>0.0139609774864364</v>
       </c>
       <c r="U11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -7684,7 +7848,7 @@
         <v>0.0146594731988439</v>
       </c>
       <c r="U12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
@@ -7749,7 +7913,7 @@
         <v>0.0103693242132259</v>
       </c>
       <c r="U13" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
@@ -7814,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -7879,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -7944,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -8009,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -8074,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -8139,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -8204,7 +8368,7 @@
         <v>0.25</v>
       </c>
       <c r="U20" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -8226,67 +8390,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="V1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -8294,7 +8458,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C2" t="n">
         <v>0.0110916245434716</v>
@@ -8354,7 +8518,7 @@
         <v>0.0378806194401175</v>
       </c>
       <c r="V2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -8362,7 +8526,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C3" t="n">
         <v>0.114428992020265</v>
@@ -8422,7 +8586,7 @@
         <v>0.0000428440011176756</v>
       </c>
       <c r="V3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -8430,7 +8594,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C4" t="n">
         <v>0.0198036579960137</v>
@@ -8490,7 +8654,7 @@
         <v>0.0118225434186487</v>
       </c>
       <c r="V4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -8498,7 +8662,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>-0.153928644520406</v>
@@ -8558,7 +8722,7 @@
         <v>-0.039698626684994</v>
       </c>
       <c r="V5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -8566,7 +8730,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
         <v>-0.212223467331552</v>
@@ -8626,7 +8790,7 @@
         <v>-0.00691808488198401</v>
       </c>
       <c r="V6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -8634,7 +8798,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C7" t="n">
         <v>0.148980315779475</v>
@@ -8694,7 +8858,7 @@
         <v>-0.0047327381961561</v>
       </c>
       <c r="V7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -8702,7 +8866,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
         <v>0.159314481754968</v>
@@ -8762,7 +8926,7 @@
         <v>-0.0370077135141626</v>
       </c>
       <c r="V8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -8770,7 +8934,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>0.0628185053735731</v>
@@ -8830,7 +8994,7 @@
         <v>-0.00414432760047413</v>
       </c>
       <c r="V9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -8838,7 +9002,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
         <v>-0.234928489060227</v>
@@ -8898,7 +9062,7 @@
         <v>-0.0640227663401278</v>
       </c>
       <c r="V10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -8906,7 +9070,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
         <v>0.344588063033289</v>
@@ -8966,7 +9130,7 @@
         <v>0.0481692000283565</v>
       </c>
       <c r="V11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -8974,7 +9138,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
         <v>-0.173849135162965</v>
@@ -9034,7 +9198,7 @@
         <v>0.00309200609109683</v>
       </c>
       <c r="V12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -9042,7 +9206,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
         <v>-0.00335170370783958</v>
@@ -9102,7 +9266,7 @@
         <v>-0.0236829336806812</v>
       </c>
       <c r="V13" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -9110,7 +9274,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
         <v>-0.152822925070782</v>
@@ -9170,7 +9334,7 @@
         <v>-0.0207100591715976</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -9178,7 +9342,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C15" t="n">
         <v>0.25081058731703</v>
@@ -9238,7 +9402,7 @@
         <v>0.00739644970414188</v>
       </c>
       <c r="V15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -9246,7 +9410,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0545377566521279</v>
@@ -9306,7 +9470,7 @@
         <v>-0.0207100591715976</v>
       </c>
       <c r="V16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
@@ -9314,7 +9478,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>0.0413625693733624</v>
@@ -9374,7 +9538,7 @@
         <v>-0.0355029585798816</v>
       </c>
       <c r="V17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
@@ -9382,7 +9546,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C18" t="n">
         <v>-0.0458675828783029</v>
@@ -9442,7 +9606,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="V18" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -9450,7 +9614,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C19" t="n">
         <v>-0.128572268751052</v>
@@ -9510,7 +9674,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="V19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -9518,7 +9682,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C20" t="n">
         <v>0.0378806194401175</v>
@@ -9578,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -9600,39 +9764,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
@@ -9640,407 +9804,407 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
